--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghena\Desktop\reger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237C9A79-4359-4C4C-B57A-88C3701DEEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB1754-F9CD-40C6-BFCC-1E32DAC75C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="1464" windowWidth="12948" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Название прщизедения</t>
+  </si>
+  <si>
+    <t>Текущее положение</t>
+  </si>
+  <si>
+    <t>23.10.2021</t>
+  </si>
+  <si>
+    <t>29.10.2023</t>
+  </si>
+  <si>
+    <t>М.Еминеску</t>
+  </si>
+  <si>
+    <t>Артуром Конаном Лойдом</t>
+  </si>
+  <si>
+    <t>И.C.Турненев</t>
+  </si>
+  <si>
+    <t>Luceafarul</t>
+  </si>
+  <si>
+    <t>Шерлок холмс</t>
+  </si>
+  <si>
+    <t>Отцы и дети</t>
+  </si>
+  <si>
+    <t>стр. 55</t>
+  </si>
+  <si>
+    <t>стр. 1</t>
+  </si>
+  <si>
+    <t>стр. 45</t>
+  </si>
+  <si>
+    <t>Lelica Andrian</t>
+  </si>
+  <si>
+    <t>Celeste Ng</t>
+  </si>
+  <si>
+    <t>Tot ce nu ti-am spus</t>
+  </si>
+  <si>
+    <t>стр. 5</t>
+  </si>
+  <si>
+    <t>Elif Shafak</t>
+  </si>
+  <si>
+    <t>Cele patruzeci de legi ale iubirii</t>
+  </si>
+  <si>
+    <t>стр. 12</t>
+  </si>
+  <si>
+    <t>Michelle Obama</t>
+  </si>
+  <si>
+    <t>Povestea mea</t>
+  </si>
+  <si>
+    <t>стр. 4</t>
+  </si>
+  <si>
+    <t>Zadie Smith</t>
+  </si>
+  <si>
+    <t>Dinti Albi</t>
+  </si>
+  <si>
+    <t>стр. 50</t>
+  </si>
+  <si>
+    <t>Khaled Hosseini</t>
+  </si>
+  <si>
+    <t>Splendida cetate a celor o mie de sori</t>
+  </si>
+  <si>
+    <t>стр. 15</t>
+  </si>
+  <si>
+    <t>Tahar Ben Jelloun</t>
+  </si>
+  <si>
+    <t>Casatorie de placere</t>
+  </si>
+  <si>
+    <t>стр. 42</t>
+  </si>
+  <si>
+    <t>Chimamanda Ngozi Adichie</t>
+  </si>
+  <si>
+    <t>Americana</t>
+  </si>
+  <si>
+    <t>стр. 57</t>
+  </si>
+  <si>
+    <t>Elena Ferrante</t>
+  </si>
+  <si>
+    <t>Prietena mea geniala</t>
+  </si>
+  <si>
+    <t>стр. 19</t>
+  </si>
+  <si>
+    <t>Gail Honeyman</t>
+  </si>
+  <si>
+    <t>Eleanor Oliphant se simte excelent</t>
+  </si>
+  <si>
+    <t>стр. 40</t>
+  </si>
+  <si>
+    <t>Paula Hawkins</t>
+  </si>
+  <si>
+    <t>Fata din tren</t>
+  </si>
+  <si>
+    <t>стр. 56</t>
+  </si>
   <si>
     <r>
       <t>N</t>
@@ -34,7 +175,7 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -42,60 +183,12 @@
       <t>o</t>
     </r>
   </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Автор</t>
-  </si>
-  <si>
-    <t>Название прщизедения</t>
-  </si>
-  <si>
-    <t>Текущее положение</t>
-  </si>
-  <si>
-    <t>23.10.2021</t>
-  </si>
-  <si>
-    <t>29.10.2023</t>
-  </si>
-  <si>
-    <t>М.Еминеску</t>
-  </si>
-  <si>
-    <t>Артуром Конаном Лойдом</t>
-  </si>
-  <si>
-    <t>И.C.Турненев</t>
-  </si>
-  <si>
-    <t>Luceafarul</t>
-  </si>
-  <si>
-    <t>Шерлок холмс</t>
-  </si>
-  <si>
-    <t>Отцы и дети</t>
-  </si>
-  <si>
-    <t>стр. 55</t>
-  </si>
-  <si>
-    <t>стр. 1</t>
-  </si>
-  <si>
-    <t>стр. 45</t>
-  </si>
-  <si>
-    <t>Lelica Andrian</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,20 +197,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,11 +238,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,94 +522,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P10" sqref="P10:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44522</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" s="1">
+        <v>44403</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43575</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C10" s="1">
+        <v>42790</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42900</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="C13" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghena\Desktop\reger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB1754-F9CD-40C6-BFCC-1E32DAC75C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E57D7-FED7-4586-A2FB-68D5A36ED525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,14 +234,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,7 +541,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:P11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,104 +553,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>44522</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>44190</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -642,138 +658,138 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>44403</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>43575</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>44130</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>42790</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>44298</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>42900</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>44288</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>42172</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
